--- a/data/trans_orig/P1419-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1419-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>13318</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7278</v>
+        <v>7122</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22034</v>
+        <v>22221</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02811057266506805</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01536246173280859</v>
+        <v>0.01503156528763816</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04650702243983407</v>
+        <v>0.04690091154902146</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -765,19 +765,19 @@
         <v>24277</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16390</v>
+        <v>15672</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34919</v>
+        <v>36633</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07916125925809156</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05344341096163701</v>
+        <v>0.05110083628123546</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1138617950631385</v>
+        <v>0.119450278507799</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -786,19 +786,19 @@
         <v>37595</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26722</v>
+        <v>26823</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51705</v>
+        <v>52274</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04817093186101046</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03423908881584534</v>
+        <v>0.03436849597895654</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06624904242334739</v>
+        <v>0.06697926961021375</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>460458</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>451742</v>
+        <v>451555</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>466498</v>
+        <v>466654</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.971889427334932</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9534929775601659</v>
+        <v>0.9530990884509785</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9846375382671914</v>
+        <v>0.9849684347123618</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>275</v>
@@ -836,19 +836,19 @@
         <v>282403</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>271761</v>
+        <v>270047</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>290290</v>
+        <v>291008</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9208387407419084</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8861382049368615</v>
+        <v>0.8805497214922018</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.946556589038363</v>
+        <v>0.9488991637187651</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>717</v>
@@ -857,19 +857,19 @@
         <v>742862</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>728752</v>
+        <v>728183</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>753735</v>
+        <v>753634</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9518290681389896</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9337509575766526</v>
+        <v>0.9330207303897851</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9657609111841546</v>
+        <v>0.9656315040210425</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>8846</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4585</v>
+        <v>4158</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16775</v>
+        <v>16161</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0241068699796629</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01249482073366478</v>
+        <v>0.01133264435876077</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04571800302907795</v>
+        <v>0.044042209642406</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -982,19 +982,19 @@
         <v>24246</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15597</v>
+        <v>15840</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35557</v>
+        <v>35553</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06520021801758845</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04194333904309119</v>
+        <v>0.0425962116926147</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09561708610266706</v>
+        <v>0.09560686780932172</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -1003,19 +1003,19 @@
         <v>33091</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23111</v>
+        <v>23579</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45853</v>
+        <v>47706</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04479067197548571</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03128252536971515</v>
+        <v>0.03191530976737748</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06206406915424257</v>
+        <v>0.06457199594881688</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>358088</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>350159</v>
+        <v>350773</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>362349</v>
+        <v>362776</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9758931300203371</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9542819969709221</v>
+        <v>0.955957790357594</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9875051792663353</v>
+        <v>0.9886673556412392</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>339</v>
@@ -1053,19 +1053,19 @@
         <v>347619</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>336308</v>
+        <v>336312</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>356268</v>
+        <v>356025</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9347997819824115</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9043829138973332</v>
+        <v>0.9043931321906779</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9580566609569088</v>
+        <v>0.9574037883073848</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>680</v>
@@ -1074,19 +1074,19 @@
         <v>705708</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>692946</v>
+        <v>691093</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>715688</v>
+        <v>715220</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9552093280245143</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9379359308457574</v>
+        <v>0.9354280040511833</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9687174746302847</v>
+        <v>0.9680846902326226</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>20114</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12864</v>
+        <v>12148</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30449</v>
+        <v>29853</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03708389348910729</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02371745743548477</v>
+        <v>0.02239706255085026</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05613842946670747</v>
+        <v>0.05504035879073838</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1199,19 +1199,19 @@
         <v>19859</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11941</v>
+        <v>12193</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29023</v>
+        <v>29954</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1183602922894852</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07116946162715085</v>
+        <v>0.07266882325561806</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1729782714235849</v>
+        <v>0.1785304863856967</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -1220,19 +1220,19 @@
         <v>39973</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28992</v>
+        <v>29174</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53860</v>
+        <v>55557</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05628590145231992</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04082464762389591</v>
+        <v>0.04107984427733878</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0758414824815367</v>
+        <v>0.0782298752846078</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>522275</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>511940</v>
+        <v>512536</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>529525</v>
+        <v>530241</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9629161065108927</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9438615705332932</v>
+        <v>0.944959641209262</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9762825425645154</v>
+        <v>0.9776029374491498</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>145</v>
@@ -1270,19 +1270,19 @@
         <v>147923</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>138759</v>
+        <v>137828</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>155841</v>
+        <v>155589</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8816397077105148</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8270217285764153</v>
+        <v>0.8214695136143034</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9288305383728492</v>
+        <v>0.927331176744382</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>657</v>
@@ -1291,19 +1291,19 @@
         <v>670198</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>656311</v>
+        <v>654614</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>681179</v>
+        <v>680997</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9437140985476801</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.924158517518463</v>
+        <v>0.9217701247153921</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.959175352376104</v>
+        <v>0.9589201557226612</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>36681</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26484</v>
+        <v>25576</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49876</v>
+        <v>50092</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0296208867132591</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0213871489509485</v>
+        <v>0.0206537710264769</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04027640257087486</v>
+        <v>0.04045151067266747</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>75</v>
@@ -1416,19 +1416,19 @@
         <v>76192</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59917</v>
+        <v>59998</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>92608</v>
+        <v>94275</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1066685594903039</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08388412599255199</v>
+        <v>0.08399703319754845</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1296516337595127</v>
+        <v>0.1319849144562514</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>111</v>
@@ -1437,19 +1437,19 @@
         <v>112872</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>94610</v>
+        <v>94521</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>134717</v>
+        <v>136233</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05780559750286755</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04845259453198716</v>
+        <v>0.04840720468250879</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06899319333510502</v>
+        <v>0.06976928507220075</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1201653</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1188458</v>
+        <v>1188242</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1211850</v>
+        <v>1212758</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9703791132867409</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9597235974291252</v>
+        <v>0.9595484893273329</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9786128510490515</v>
+        <v>0.9793462289735231</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>619</v>
@@ -1487,19 +1487,19 @@
         <v>638093</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>621677</v>
+        <v>620010</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>654368</v>
+        <v>654287</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8933314405096962</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8703483662404875</v>
+        <v>0.8680150855437486</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9161158740074485</v>
+        <v>0.9160029668024514</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1807</v>
@@ -1508,19 +1508,19 @@
         <v>1839748</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1817903</v>
+        <v>1816387</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1858010</v>
+        <v>1858099</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9421944024971325</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.931006806664895</v>
+        <v>0.9302307149277993</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9515474054680129</v>
+        <v>0.9515927953174912</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>18126</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10294</v>
+        <v>10902</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28039</v>
+        <v>28421</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05170638172152761</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02936585707744954</v>
+        <v>0.03109862199285188</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07998553671506371</v>
+        <v>0.08107289401168735</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>53</v>
@@ -1633,19 +1633,19 @@
         <v>56797</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>43177</v>
+        <v>42128</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>71789</v>
+        <v>71907</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0998631829443848</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0759151958818863</v>
+        <v>0.07407165473664878</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1262223168999788</v>
+        <v>0.1264297542380875</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>70</v>
@@ -1654,19 +1654,19 @@
         <v>74923</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>59666</v>
+        <v>59058</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>93939</v>
+        <v>94856</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08149976527262565</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06490360616225384</v>
+        <v>0.06424225145077704</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1021846169731059</v>
+        <v>0.1031819522271861</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>332429</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>322516</v>
+        <v>322134</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>340261</v>
+        <v>339653</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9482936182784724</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9200144632849363</v>
+        <v>0.9189271059883127</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9706341429225508</v>
+        <v>0.9689013780071482</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>486</v>
@@ -1704,19 +1704,19 @@
         <v>511955</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>496963</v>
+        <v>496845</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>525575</v>
+        <v>526624</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9001368170556152</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8737776831000212</v>
+        <v>0.8735702457619127</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9240848041181137</v>
+        <v>0.9259283452633513</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>809</v>
@@ -1725,19 +1725,19 @@
         <v>844384</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>825368</v>
+        <v>824451</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>859641</v>
+        <v>860249</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9185002347273744</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8978153830268941</v>
+        <v>0.8968180477728138</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9350963938377461</v>
+        <v>0.9357577485492229</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6550</v>
+        <v>7167</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006688156572471378</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02196579758741858</v>
+        <v>0.02403253783698686</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>160</v>
@@ -1850,19 +1850,19 @@
         <v>162967</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>140106</v>
+        <v>140508</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>189986</v>
+        <v>188325</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1305030056582803</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1121963353649938</v>
+        <v>0.1125181613388749</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1521399854278903</v>
+        <v>0.1508094429479171</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>162</v>
@@ -1871,19 +1871,19 @@
         <v>164961</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>141800</v>
+        <v>141864</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>191216</v>
+        <v>189803</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1066357777017642</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09166394356278243</v>
+        <v>0.09170491324341339</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1236076538317276</v>
+        <v>0.1226944539443716</v>
       </c>
     </row>
     <row r="20">
@@ -1900,7 +1900,7 @@
         <v>296207</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>291651</v>
+        <v>291034</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>298201</v>
@@ -1909,7 +1909,7 @@
         <v>0.9933118434275287</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.978034202412582</v>
+        <v>0.9759674621630123</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1921,19 +1921,19 @@
         <v>1085793</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1058774</v>
+        <v>1060435</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1108654</v>
+        <v>1108252</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8694969943417197</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8478600145721098</v>
+        <v>0.8491905570520828</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8878036646350063</v>
+        <v>0.8874818386611258</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1382</v>
@@ -1942,19 +1942,19 @@
         <v>1381999</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1355744</v>
+        <v>1357157</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1405160</v>
+        <v>1405096</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8933642222982358</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8763923461682724</v>
+        <v>0.8773055460556284</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9083360564372175</v>
+        <v>0.9082950867565865</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>99079</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>79988</v>
+        <v>80720</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>122138</v>
+        <v>120424</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03029750056445634</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02445981577955185</v>
+        <v>0.02468349840314114</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0373487703589759</v>
+        <v>0.03682483893230083</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>354</v>
@@ -2067,19 +2067,19 @@
         <v>364338</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>329403</v>
+        <v>329589</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>400001</v>
+        <v>400727</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1078520632664838</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09751062946958011</v>
+        <v>0.09756566938292216</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1184092978770024</v>
+        <v>0.1186242489396685</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>451</v>
@@ -2088,19 +2088,19 @@
         <v>463416</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>420558</v>
+        <v>421905</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>508483</v>
+        <v>502241</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06970432316776069</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06325788936647557</v>
+        <v>0.06346047051134322</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0764829922188858</v>
+        <v>0.07554418047259676</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3171111</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3148052</v>
+        <v>3149766</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3190202</v>
+        <v>3189470</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9697024994355437</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.962651229641024</v>
+        <v>0.9631751610676991</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9755401842204481</v>
+        <v>0.9753165015968588</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2942</v>
@@ -2138,19 +2138,19 @@
         <v>3013786</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2978123</v>
+        <v>2977397</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3048721</v>
+        <v>3048535</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8921479367335162</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8815907021229978</v>
+        <v>0.8813757510603315</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9024893705304199</v>
+        <v>0.902434330617078</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6052</v>
@@ -2159,19 +2159,19 @@
         <v>6184898</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6139831</v>
+        <v>6146073</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6227756</v>
+        <v>6226409</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9302956768322393</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9235170077811141</v>
+        <v>0.9244558195274032</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9367421106335244</v>
+        <v>0.9365395294886568</v>
       </c>
     </row>
     <row r="24">
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6043</v>
+        <v>6011</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002398187751246386</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01382260500104558</v>
+        <v>0.01374927833175199</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -2526,19 +2526,19 @@
         <v>9806</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4979</v>
+        <v>4918</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16983</v>
+        <v>16841</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03118450990601104</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01583415110688944</v>
+        <v>0.01564034751092294</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05400782216252095</v>
+        <v>0.05355619569964368</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -2547,19 +2547,19 @@
         <v>10855</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5058</v>
+        <v>5864</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18126</v>
+        <v>19789</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01444076131773683</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006729353478429375</v>
+        <v>0.00780118151183089</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02411502477665798</v>
+        <v>0.02632751723757681</v>
       </c>
     </row>
     <row r="5">
@@ -2576,7 +2576,7 @@
         <v>436162</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>431168</v>
+        <v>431200</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>437211</v>
@@ -2585,7 +2585,7 @@
         <v>0.9976018122487537</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9861773949989545</v>
+        <v>0.9862507216682479</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2597,19 +2597,19 @@
         <v>304648</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>297471</v>
+        <v>297613</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>309475</v>
+        <v>309536</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9688154900939889</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9459921778374786</v>
+        <v>0.9464438043003564</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9841658488931104</v>
+        <v>0.9843596524890772</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>676</v>
@@ -2618,19 +2618,19 @@
         <v>740810</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>733539</v>
+        <v>731876</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>746607</v>
+        <v>745801</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9855592386822631</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9758849752233421</v>
+        <v>0.9736724827624231</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9932706465215706</v>
+        <v>0.9921988184881692</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>4047</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1078</v>
+        <v>1047</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11985</v>
+        <v>10097</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009662383493270624</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002575014555168406</v>
+        <v>0.002500837070312653</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02861684270796131</v>
+        <v>0.02410883526008456</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -2743,19 +2743,19 @@
         <v>17997</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10546</v>
+        <v>11037</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27947</v>
+        <v>28406</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05324419969087812</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03119910481984716</v>
+        <v>0.03265165634629465</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08268205458718407</v>
+        <v>0.08403806950227585</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -2764,19 +2764,19 @@
         <v>22044</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13576</v>
+        <v>14107</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33798</v>
+        <v>33295</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02912721007201018</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01793795453573317</v>
+        <v>0.01864061175203056</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04465887074546456</v>
+        <v>0.04399374205077762</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>414750</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>406812</v>
+        <v>408700</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>417719</v>
+        <v>417750</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9903376165067294</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9713831572920403</v>
+        <v>0.9758911647399156</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9974249854448316</v>
+        <v>0.9974991629296873</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>289</v>
@@ -2814,19 +2814,19 @@
         <v>320014</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>310064</v>
+        <v>309605</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>327465</v>
+        <v>326974</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9467558003091219</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9173179454128156</v>
+        <v>0.9159619304977242</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9688008951801528</v>
+        <v>0.9673483436537054</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>660</v>
@@ -2835,19 +2835,19 @@
         <v>734764</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>723010</v>
+        <v>723513</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>743232</v>
+        <v>742701</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9708727899279899</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9553411292545353</v>
+        <v>0.9560062579492222</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9820620454642669</v>
+        <v>0.9813593882479694</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>8451</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3933</v>
+        <v>4288</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16247</v>
+        <v>16849</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0134268169211224</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006248373380421887</v>
+        <v>0.006812562286646242</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02581262272067374</v>
+        <v>0.02676975438682618</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -2960,19 +2960,19 @@
         <v>20869</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13411</v>
+        <v>13317</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31378</v>
+        <v>31720</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08022654596321648</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05155508947329139</v>
+        <v>0.05119371280188777</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1206234618926989</v>
+        <v>0.1219389407521925</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -2981,19 +2981,19 @@
         <v>29320</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20073</v>
+        <v>19546</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42494</v>
+        <v>41927</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03296106206431911</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02256524477888687</v>
+        <v>0.02197355385358533</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0477703159149231</v>
+        <v>0.04713293255760596</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>620964</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>613168</v>
+        <v>612566</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>625482</v>
+        <v>625127</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9865731830788776</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9741873772793258</v>
+        <v>0.9732302456131732</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9937516266195781</v>
+        <v>0.9931874377133537</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>225</v>
@@ -3031,19 +3031,19 @@
         <v>239260</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>228751</v>
+        <v>228409</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>246718</v>
+        <v>246812</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9197734540367836</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.879376538107301</v>
+        <v>0.8780610592478076</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9484449105267085</v>
+        <v>0.9488062871981124</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>808</v>
@@ -3052,19 +3052,19 @@
         <v>860224</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>847050</v>
+        <v>847617</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>869471</v>
+        <v>869998</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9670389379356809</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9522296840850768</v>
+        <v>0.952867067442394</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9774347552211131</v>
+        <v>0.9780264461464147</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>23111</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13781</v>
+        <v>13120</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36621</v>
+        <v>35226</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01994049154573614</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01189000637234764</v>
+        <v>0.01132019889566449</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03159718812286208</v>
+        <v>0.03039325015397925</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -3177,19 +3177,19 @@
         <v>47903</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34842</v>
+        <v>35502</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62360</v>
+        <v>63957</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06264129377366952</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0455622859259733</v>
+        <v>0.04642451419100802</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08154569756428635</v>
+        <v>0.08363473660136303</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -3198,19 +3198,19 @@
         <v>71014</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54940</v>
+        <v>55031</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90319</v>
+        <v>90435</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03691492488515676</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02855883273536629</v>
+        <v>0.02860654231034535</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04694980056158028</v>
+        <v>0.04700998386746712</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1135898</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1122388</v>
+        <v>1123783</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1145228</v>
+        <v>1145889</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9800595084542638</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9684028118771378</v>
+        <v>0.9696067498460206</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9881099936276524</v>
+        <v>0.9886798011043355</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>666</v>
@@ -3248,19 +3248,19 @@
         <v>716819</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>702362</v>
+        <v>700765</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>729880</v>
+        <v>729220</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9373587062263304</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9184543024357139</v>
+        <v>0.9163652633986371</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9544377140740271</v>
+        <v>0.9535754858089924</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1730</v>
@@ -3269,19 +3269,19 @@
         <v>1852717</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1833412</v>
+        <v>1833296</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1868791</v>
+        <v>1868700</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9630850751148432</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9530501994384197</v>
+        <v>0.9529900161325325</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9714411672646337</v>
+        <v>0.9713934576896539</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>4131</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10987</v>
+        <v>9515</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008089597154527738</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002025813155478969</v>
+        <v>0.002037538101605184</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02151742645437608</v>
+        <v>0.01863547793194383</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>72</v>
@@ -3394,19 +3394,19 @@
         <v>77896</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61516</v>
+        <v>62319</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>96674</v>
+        <v>94911</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1024617577665661</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08091603042317855</v>
+        <v>0.08197203609934912</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1271621165270646</v>
+        <v>0.1248430627676728</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>76</v>
@@ -3415,19 +3415,19 @@
         <v>82027</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>63849</v>
+        <v>64875</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>99866</v>
+        <v>101381</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06454512287823996</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05024128233125923</v>
+        <v>0.05104898351043921</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07858241510317283</v>
+        <v>0.07977430453544754</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>506465</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>499609</v>
+        <v>501081</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>509562</v>
+        <v>509556</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9919104028454723</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9784825735456221</v>
+        <v>0.9813645220680564</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.997974186844521</v>
+        <v>0.9979624618983948</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>630</v>
@@ -3465,19 +3465,19 @@
         <v>682350</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>663572</v>
+        <v>665335</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>698730</v>
+        <v>697927</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8975382422334339</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8728378834729353</v>
+        <v>0.8751569372323273</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9190839695768215</v>
+        <v>0.9180279639006509</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1113</v>
@@ -3486,19 +3486,19 @@
         <v>1188816</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1170977</v>
+        <v>1169462</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1206994</v>
+        <v>1205968</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.93545487712176</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9214175848968271</v>
+        <v>0.9202256954645525</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9497587176687408</v>
+        <v>0.9489510164895608</v>
       </c>
     </row>
     <row r="18">
@@ -3603,19 +3603,19 @@
         <v>125213</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>104307</v>
+        <v>105525</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>146547</v>
+        <v>147643</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1128701400535077</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09402536671601153</v>
+        <v>0.09512310720226079</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1321016682689604</v>
+        <v>0.1330897978630247</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>117</v>
@@ -3624,19 +3624,19 @@
         <v>125213</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>104478</v>
+        <v>103878</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>149656</v>
+        <v>146742</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09098213387526821</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0759157392688356</v>
+        <v>0.07547978592868025</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1087431664321224</v>
+        <v>0.1066255640825338</v>
       </c>
     </row>
     <row r="20">
@@ -3666,19 +3666,19 @@
         <v>984138</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>962804</v>
+        <v>961708</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1005044</v>
+        <v>1003826</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8871298599464923</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8678983317310396</v>
+        <v>0.8669102021369753</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9059746332839885</v>
+        <v>0.9048768927977392</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1192</v>
@@ -3687,19 +3687,19 @@
         <v>1251020</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1226577</v>
+        <v>1229491</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1271755</v>
+        <v>1272355</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9090178661247318</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8912568335678775</v>
+        <v>0.8933744359174662</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9240842607311645</v>
+        <v>0.9245202140713199</v>
       </c>
     </row>
     <row r="21">
@@ -3791,19 +3791,19 @@
         <v>40788</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29076</v>
+        <v>29395</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57269</v>
+        <v>56581</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01191961841686464</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008497089932029824</v>
+        <v>0.008590340223750374</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01673606377622232</v>
+        <v>0.01653477243437079</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>278</v>
@@ -3812,19 +3812,19 @@
         <v>299685</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>266561</v>
+        <v>267010</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>334827</v>
+        <v>334879</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08449161010448809</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07515285586244308</v>
+        <v>0.07527957640257206</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09439938434153251</v>
+        <v>0.09441429898566303</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>314</v>
@@ -3833,19 +3833,19 @@
         <v>340472</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>303418</v>
+        <v>306217</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>381056</v>
+        <v>379322</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04885650141199505</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04353939140496658</v>
+        <v>0.04394093591027021</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05468002916747458</v>
+        <v>0.05443120575013788</v>
       </c>
     </row>
     <row r="23">
@@ -3862,19 +3862,19 @@
         <v>3381122</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3364641</v>
+        <v>3365329</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3392834</v>
+        <v>3392515</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9880803815831354</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9832639362237778</v>
+        <v>0.9834652275656293</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9915029100679702</v>
+        <v>0.9914096597762496</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3010</v>
@@ -3883,19 +3883,19 @@
         <v>3247230</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3212088</v>
+        <v>3212036</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3280354</v>
+        <v>3279905</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9155083898955119</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9056006156584674</v>
+        <v>0.9055857010143372</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9248471441375569</v>
+        <v>0.9247204235974286</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6179</v>
@@ -3904,19 +3904,19 @@
         <v>6628353</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6587769</v>
+        <v>6589503</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6665407</v>
+        <v>6662608</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.951143498588005</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9453199708325254</v>
+        <v>0.9455687942498622</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9564606085950332</v>
+        <v>0.95605906408973</v>
       </c>
     </row>
     <row r="24">
@@ -4250,19 +4250,19 @@
         <v>10189</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4765</v>
+        <v>5152</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18174</v>
+        <v>18889</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02374609344933038</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01110539016022398</v>
+        <v>0.01200777429015759</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04235507937407034</v>
+        <v>0.04401977125927176</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -4271,19 +4271,19 @@
         <v>12884</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6333</v>
+        <v>6650</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23132</v>
+        <v>24496</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0371235005198119</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01824645340375841</v>
+        <v>0.01916227344463296</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06665082339669072</v>
+        <v>0.07058139420330596</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -4292,19 +4292,19 @@
         <v>23073</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14236</v>
+        <v>13855</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35895</v>
+        <v>35846</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02972781502672503</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01834193529467637</v>
+        <v>0.01785089125601853</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04624805740059628</v>
+        <v>0.04618514637890179</v>
       </c>
     </row>
     <row r="5">
@@ -4321,19 +4321,19 @@
         <v>418903</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>410918</v>
+        <v>410203</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>424327</v>
+        <v>423940</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9762539065506696</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9576449206259297</v>
+        <v>0.9559802287407285</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.988894609839776</v>
+        <v>0.9879922257098425</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>322</v>
@@ -4342,19 +4342,19 @@
         <v>334171</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>323923</v>
+        <v>322559</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>340722</v>
+        <v>340405</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9628764994801881</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9333491766033094</v>
+        <v>0.9294186057966941</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9817535465962417</v>
+        <v>0.9808377265553671</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>709</v>
@@ -4363,19 +4363,19 @@
         <v>753074</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>740252</v>
+        <v>740301</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>761911</v>
+        <v>762292</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9702721849732749</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.953751942599403</v>
+        <v>0.9538148536210979</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9816580647053236</v>
+        <v>0.9821491087439815</v>
       </c>
     </row>
     <row r="6">
@@ -4467,19 +4467,19 @@
         <v>3467</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10119</v>
+        <v>10225</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009190450053116668</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002534683839999688</v>
+        <v>0.002546048012469332</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02682571594905792</v>
+        <v>0.02710634514693483</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -4488,19 +4488,19 @@
         <v>9379</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4197</v>
+        <v>4412</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19490</v>
+        <v>18010</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0251945981622031</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01127373243683309</v>
+        <v>0.01185150188346843</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05235359031683134</v>
+        <v>0.04837940857950608</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -4509,19 +4509,19 @@
         <v>12846</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6851</v>
+        <v>6759</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23556</v>
+        <v>23353</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01713963541807507</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009140641727085995</v>
+        <v>0.009017774533466244</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03142946778487964</v>
+        <v>0.03115783798058003</v>
       </c>
     </row>
     <row r="8">
@@ -4538,19 +4538,19 @@
         <v>373760</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>367108</v>
+        <v>367002</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>376271</v>
+        <v>376267</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9908095499468833</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.973174284050942</v>
+        <v>0.9728936548530644</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9974653161600003</v>
+        <v>0.9974539519875306</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>344</v>
@@ -4559,19 +4559,19 @@
         <v>362894</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>352783</v>
+        <v>354263</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>368076</v>
+        <v>367861</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9748054018377968</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9476464096831687</v>
+        <v>0.951620591420494</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9887262675631669</v>
+        <v>0.9881484981165317</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>695</v>
@@ -4580,19 +4580,19 @@
         <v>736654</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>725944</v>
+        <v>726147</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>742649</v>
+        <v>742741</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9828603645819249</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9685705322151225</v>
+        <v>0.9688421620194201</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9908593582729145</v>
+        <v>0.9909822254665337</v>
       </c>
     </row>
     <row r="9">
@@ -4684,19 +4684,19 @@
         <v>11667</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6194</v>
+        <v>5983</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19844</v>
+        <v>20559</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02235381081460476</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01186767804077063</v>
+        <v>0.01146432630028329</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03802231946834253</v>
+        <v>0.03939104549618933</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -4705,19 +4705,19 @@
         <v>17470</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9661</v>
+        <v>9885</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26816</v>
+        <v>27767</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1051602343809569</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05815691057115353</v>
+        <v>0.05950203815605905</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1614238007224992</v>
+        <v>0.1671476378679526</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -4726,19 +4726,19 @@
         <v>29136</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19855</v>
+        <v>19396</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41379</v>
+        <v>41930</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04234698760915756</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02885698169089255</v>
+        <v>0.02819087362517438</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06014032778553215</v>
+        <v>0.06094206299235044</v>
       </c>
     </row>
     <row r="11">
@@ -4755,19 +4755,19 @@
         <v>510247</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>502070</v>
+        <v>501355</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>515720</v>
+        <v>515931</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9776461891853953</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9619776805316574</v>
+        <v>0.9606089545038108</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9881323219592293</v>
+        <v>0.9885356736997167</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>138</v>
@@ -4776,19 +4776,19 @@
         <v>148653</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>139307</v>
+        <v>138356</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>156462</v>
+        <v>156238</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8948397656190431</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8385761992775008</v>
+        <v>0.8328523621320476</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9418430894288466</v>
+        <v>0.9404979618439413</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>629</v>
@@ -4797,19 +4797,19 @@
         <v>658900</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>646657</v>
+        <v>646106</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>668181</v>
+        <v>668640</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9576530123908424</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.939859672214468</v>
+        <v>0.9390579370076496</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9711430183091074</v>
+        <v>0.9718091263748257</v>
       </c>
     </row>
     <row r="12">
@@ -4901,19 +4901,19 @@
         <v>14589</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8604</v>
+        <v>8250</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24624</v>
+        <v>23287</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01269029005307471</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007484522914540693</v>
+        <v>0.0071761085894512</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02141888656578888</v>
+        <v>0.02025599136396705</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -4922,19 +4922,19 @@
         <v>39688</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27287</v>
+        <v>28462</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54147</v>
+        <v>56151</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04805612233751456</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03304057816855532</v>
+        <v>0.03446321887846666</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.065562681110392</v>
+        <v>0.06798982262180668</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -4943,19 +4943,19 @@
         <v>54278</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40264</v>
+        <v>40918</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>71837</v>
+        <v>70864</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02747519347853541</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02038160891689571</v>
+        <v>0.02071269936036788</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03636390751405808</v>
+        <v>0.03587094712351262</v>
       </c>
     </row>
     <row r="14">
@@ -4972,19 +4972,19 @@
         <v>1135049</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1125014</v>
+        <v>1126351</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1141034</v>
+        <v>1141388</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9873097099469252</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9785811134342108</v>
+        <v>0.9797440086360327</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9925154770854593</v>
+        <v>0.9928238914105485</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>763</v>
@@ -4993,19 +4993,19 @@
         <v>786188</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>771729</v>
+        <v>769725</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>798589</v>
+        <v>797414</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9519438776624854</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.934437318889608</v>
+        <v>0.9320101773781934</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9669594218314447</v>
+        <v>0.9655367811215334</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1852</v>
@@ -5014,19 +5014,19 @@
         <v>1921236</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1903677</v>
+        <v>1904650</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1935250</v>
+        <v>1934596</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9725248065214646</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9636360924859422</v>
+        <v>0.9641290528764874</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9796183910831043</v>
+        <v>0.979287300639632</v>
       </c>
     </row>
     <row r="15">
@@ -5118,19 +5118,19 @@
         <v>11405</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5670</v>
+        <v>5936</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19548</v>
+        <v>19298</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01837346474086744</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009133961678444545</v>
+        <v>0.009562620079421819</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0314939463581781</v>
+        <v>0.03108994336318558</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>54</v>
@@ -5139,19 +5139,19 @@
         <v>60199</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44704</v>
+        <v>45141</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>77660</v>
+        <v>75566</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08154371122976049</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06055442632157394</v>
+        <v>0.061146972280795</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.105195687404474</v>
+        <v>0.102359383232887</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -5160,19 +5160,19 @@
         <v>71604</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>55597</v>
+        <v>55161</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>89422</v>
+        <v>88637</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05269044717575597</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04091209416386601</v>
+        <v>0.04059076786570975</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06580205579895421</v>
+        <v>0.06522437630630043</v>
       </c>
     </row>
     <row r="17">
@@ -5189,19 +5189,19 @@
         <v>609301</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>601158</v>
+        <v>601408</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>615036</v>
+        <v>614770</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9816265352591326</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.968506053641822</v>
+        <v>0.9689100566368144</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9908660383215555</v>
+        <v>0.9904373799205782</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>645</v>
@@ -5210,19 +5210,19 @@
         <v>678045</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>660584</v>
+        <v>662678</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>693540</v>
+        <v>693103</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9184562887702395</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8948043125955262</v>
+        <v>0.8976406167671132</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9394455736784261</v>
+        <v>0.938853027719205</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1230</v>
@@ -5231,19 +5231,19 @@
         <v>1287346</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1269528</v>
+        <v>1270313</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1303353</v>
+        <v>1303789</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.947309552824244</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9341979442010458</v>
+        <v>0.9347756236936996</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.959087905836134</v>
+        <v>0.9594092321342903</v>
       </c>
     </row>
     <row r="18">
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4436</v>
+        <v>4389</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003568064393161975</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01544734624239347</v>
+        <v>0.01528617285320456</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -5356,19 +5356,19 @@
         <v>76345</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57280</v>
+        <v>60154</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>96299</v>
+        <v>95014</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07055726364217324</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05293794419494365</v>
+        <v>0.05559403416416445</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08899929150281223</v>
+        <v>0.08781136743535153</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>64</v>
@@ -5377,19 +5377,19 @@
         <v>77369</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>60702</v>
+        <v>58908</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>99429</v>
+        <v>95284</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05650815104067165</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04433486071599666</v>
+        <v>0.04302495196338826</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07261960622685411</v>
+        <v>0.06959269314612172</v>
       </c>
     </row>
     <row r="20">
@@ -5406,7 +5406,7 @@
         <v>286120</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>282709</v>
+        <v>282756</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -5415,7 +5415,7 @@
         <v>0.9964319356068381</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9845526537576057</v>
+        <v>0.984713827146794</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5427,19 +5427,19 @@
         <v>1005680</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>985726</v>
+        <v>987011</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1024745</v>
+        <v>1021871</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9294427363578267</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9110007084971876</v>
+        <v>0.9121886325646482</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9470620558050562</v>
+        <v>0.9444059658358355</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1200</v>
@@ -5448,19 +5448,19 @@
         <v>1291801</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1269741</v>
+        <v>1273886</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1308468</v>
+        <v>1310262</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9434918489593284</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9273803937731447</v>
+        <v>0.9304073068538782</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9556651392840033</v>
+        <v>0.9569750480366117</v>
       </c>
     </row>
     <row r="21">
@@ -5552,19 +5552,19 @@
         <v>52341</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39352</v>
+        <v>38259</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69447</v>
+        <v>68621</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01545939633775237</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01162287628386952</v>
+        <v>0.01130015985648921</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02051175349853253</v>
+        <v>0.02026770560561123</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>185</v>
@@ -5573,19 +5573,19 @@
         <v>215965</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>185919</v>
+        <v>187810</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>245191</v>
+        <v>251291</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06115222614095724</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05264434624241551</v>
+        <v>0.05317978399891214</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06942774606740268</v>
+        <v>0.07115500413911362</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>235</v>
@@ -5594,19 +5594,19 @@
         <v>268306</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>234752</v>
+        <v>237006</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>305046</v>
+        <v>303423</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03878760071748154</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0339369207559772</v>
+        <v>0.03426268141192293</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04409882230183002</v>
+        <v>0.04386420653424403</v>
       </c>
     </row>
     <row r="23">
@@ -5623,19 +5623,19 @@
         <v>3333381</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3316275</v>
+        <v>3317101</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3346370</v>
+        <v>3347463</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9845406036622476</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9794882465014674</v>
+        <v>0.9797322943943888</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9883771237161303</v>
+        <v>0.9886998401435112</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3141</v>
@@ -5644,19 +5644,19 @@
         <v>3315631</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3286405</v>
+        <v>3280305</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3345677</v>
+        <v>3343786</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9388477738590427</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9305722539325976</v>
+        <v>0.9288449958608863</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9473556537575846</v>
+        <v>0.9468202160010879</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6315</v>
@@ -5665,19 +5665,19 @@
         <v>6649012</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6612272</v>
+        <v>6613895</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6682566</v>
+        <v>6680312</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9612123992825184</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.95590117769817</v>
+        <v>0.9561357934657557</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9660630792440227</v>
+        <v>0.965737318588077</v>
       </c>
     </row>
     <row r="24">
@@ -6011,19 +6011,19 @@
         <v>19043</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11710</v>
+        <v>11815</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29041</v>
+        <v>28718</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03458460801469296</v>
+        <v>0.03458460801469295</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02126690103135366</v>
+        <v>0.0214583344421478</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05274223459755353</v>
+        <v>0.05215644896612794</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -6032,19 +6032,19 @@
         <v>35545</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26038</v>
+        <v>26762</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46099</v>
+        <v>46492</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.07277772721426466</v>
+        <v>0.07277772721426465</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05331085118904556</v>
+        <v>0.05479419938589923</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0943849464190071</v>
+        <v>0.09518963424951567</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>74</v>
@@ -6053,19 +6053,19 @@
         <v>54588</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43037</v>
+        <v>43343</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>68429</v>
+        <v>68519</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05253784363295161</v>
+        <v>0.0525378436329516</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04142052289083053</v>
+        <v>0.04171454042233255</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06585814560567553</v>
+        <v>0.06594541295886315</v>
       </c>
     </row>
     <row r="5">
@@ -6082,19 +6082,19 @@
         <v>531575</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>521577</v>
+        <v>521900</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>538908</v>
+        <v>538803</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9654153919853072</v>
+        <v>0.965415391985307</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9472577654024465</v>
+        <v>0.9478435510338732</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9787330989686465</v>
+        <v>0.9785416655578525</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>633</v>
@@ -6103,19 +6103,19 @@
         <v>452866</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>442312</v>
+        <v>441919</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>462373</v>
+        <v>461649</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9272222727857353</v>
+        <v>0.9272222727857352</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9056150535809928</v>
+        <v>0.9048103657504839</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9466891488109542</v>
+        <v>0.9452058006141006</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1166</v>
@@ -6124,19 +6124,19 @@
         <v>984441</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>970600</v>
+        <v>970510</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>995992</v>
+        <v>995686</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9474621563670486</v>
+        <v>0.9474621563670484</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9341418543943245</v>
+        <v>0.9340545870411369</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9585794771091695</v>
+        <v>0.9582854595776674</v>
       </c>
     </row>
     <row r="6">
@@ -6228,19 +6228,19 @@
         <v>15350</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9217</v>
+        <v>9325</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23057</v>
+        <v>23622</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03176625371294545</v>
+        <v>0.03176625371294544</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01907536400135136</v>
+        <v>0.01929735528281851</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04771556532272556</v>
+        <v>0.04888623707227067</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -6249,19 +6249,19 @@
         <v>35265</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27625</v>
+        <v>26979</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44984</v>
+        <v>44907</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08346818465169707</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06538661710886749</v>
+        <v>0.06385598607808671</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1064731264844739</v>
+        <v>0.1062908808146262</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>75</v>
@@ -6270,19 +6270,19 @@
         <v>50614</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40284</v>
+        <v>40691</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62406</v>
+        <v>64810</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0558841137781908</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04447775248978525</v>
+        <v>0.04492797079243425</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0689032089899121</v>
+        <v>0.07155733947412725</v>
       </c>
     </row>
     <row r="8">
@@ -6299,19 +6299,19 @@
         <v>467862</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>460155</v>
+        <v>459590</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>473995</v>
+        <v>473887</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9682337462870545</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9522844346772743</v>
+        <v>0.9511137629277295</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9809246359986488</v>
+        <v>0.9807026447171815</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>533</v>
@@ -6320,19 +6320,19 @@
         <v>387227</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>377508</v>
+        <v>377585</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>394867</v>
+        <v>395513</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9165318153483029</v>
+        <v>0.916531815348303</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8935268735155262</v>
+        <v>0.8937091191853741</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9346133828911325</v>
+        <v>0.9361440139219133</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>995</v>
@@ -6341,19 +6341,19 @@
         <v>855090</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>843298</v>
+        <v>840894</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>865420</v>
+        <v>865013</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9441158862218092</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.931096791010088</v>
+        <v>0.928442660525873</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9555222475102148</v>
+        <v>0.955072029207566</v>
       </c>
     </row>
     <row r="9">
@@ -6445,19 +6445,19 @@
         <v>27664</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19446</v>
+        <v>18608</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40176</v>
+        <v>38980</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05876651913885628</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04130835441146552</v>
+        <v>0.03952877470555137</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08534531654975627</v>
+        <v>0.08280468833023989</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -6466,19 +6466,19 @@
         <v>35400</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27345</v>
+        <v>27493</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45101</v>
+        <v>44458</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1888010458349977</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1458422100750195</v>
+        <v>0.1466337593850695</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2405439485005043</v>
+        <v>0.2371154647421017</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>87</v>
@@ -6487,19 +6487,19 @@
         <v>63064</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51051</v>
+        <v>49915</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78717</v>
+        <v>77462</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09580634361733224</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07755721530338006</v>
+        <v>0.0758309211651875</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1195869806052232</v>
+        <v>0.1176798738839193</v>
       </c>
     </row>
     <row r="11">
@@ -6516,19 +6516,19 @@
         <v>443079</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>430567</v>
+        <v>431763</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>451297</v>
+        <v>452135</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9412334808611438</v>
+        <v>0.9412334808611439</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9146546834502436</v>
+        <v>0.9171953116697601</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9586916455885344</v>
+        <v>0.9604712252944487</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>233</v>
@@ -6537,19 +6537,19 @@
         <v>152097</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>142396</v>
+        <v>143039</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>160152</v>
+        <v>160004</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8111989541650022</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7594560514994962</v>
+        <v>0.7628845352578985</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8541577899249808</v>
+        <v>0.8533662406149306</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>689</v>
@@ -6558,19 +6558,19 @@
         <v>595177</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>579524</v>
+        <v>580779</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>607190</v>
+        <v>608326</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9041936563826677</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8804130193947768</v>
+        <v>0.8823201261160808</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9224427846966198</v>
+        <v>0.9241690788348126</v>
       </c>
     </row>
     <row r="12">
@@ -6662,19 +6662,19 @@
         <v>58453</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45459</v>
+        <v>45303</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73779</v>
+        <v>74101</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05164414666459371</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04016379679056679</v>
+        <v>0.04002596040818302</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06518466145197754</v>
+        <v>0.06546928889822209</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>145</v>
@@ -6683,19 +6683,19 @@
         <v>88754</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>76126</v>
+        <v>75376</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>103867</v>
+        <v>104442</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1031414495980294</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08846637458678651</v>
+        <v>0.08759521099648709</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1207041881244031</v>
+        <v>0.1213724102095702</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>214</v>
@@ -6704,19 +6704,19 @@
         <v>147207</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>126375</v>
+        <v>127926</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>168076</v>
+        <v>168048</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07388613868458292</v>
+        <v>0.07388613868458291</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06343029606009958</v>
+        <v>0.06420861148826239</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08436070774060668</v>
+        <v>0.08434638549801769</v>
       </c>
     </row>
     <row r="14">
@@ -6733,19 +6733,19 @@
         <v>1073390</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1058064</v>
+        <v>1057742</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1086384</v>
+        <v>1086540</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9483558533354062</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9348153385480225</v>
+        <v>0.9345307111017779</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9598362032094332</v>
+        <v>0.959974039591817</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1084</v>
@@ -6754,19 +6754,19 @@
         <v>771754</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>756641</v>
+        <v>756066</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>784382</v>
+        <v>785132</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8968585504019705</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8792958118755967</v>
+        <v>0.8786275897904299</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9115336254132133</v>
+        <v>0.912404789003513</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2133</v>
@@ -6775,19 +6775,19 @@
         <v>1845144</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1824275</v>
+        <v>1824303</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1865976</v>
+        <v>1864425</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9261138613154171</v>
+        <v>0.9261138613154173</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9156392922593933</v>
+        <v>0.9156536145019821</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9365697039399004</v>
+        <v>0.9357913885117376</v>
       </c>
     </row>
     <row r="15">
@@ -6879,19 +6879,19 @@
         <v>13511</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7998</v>
+        <v>8263</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22055</v>
+        <v>21889</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02383002395248302</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01410659411577389</v>
+        <v>0.01457325277832398</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03889850815848764</v>
+        <v>0.03860674219804088</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>223</v>
@@ -6900,19 +6900,19 @@
         <v>126034</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>110633</v>
+        <v>109459</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>142040</v>
+        <v>141606</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1518252126273664</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.133272295580113</v>
+        <v>0.1318579648246033</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1711061475233339</v>
+        <v>0.1705840142896732</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>240</v>
@@ -6921,19 +6921,19 @@
         <v>139545</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>123792</v>
+        <v>123071</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>157833</v>
+        <v>158950</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09988187427781822</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08860630863249444</v>
+        <v>0.08809025188906462</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1129719319871541</v>
+        <v>0.1137710041089166</v>
       </c>
     </row>
     <row r="17">
@@ -6950,19 +6950,19 @@
         <v>553465</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>544921</v>
+        <v>545087</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>558978</v>
+        <v>558713</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9761699760475171</v>
+        <v>0.9761699760475169</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9611014918415124</v>
+        <v>0.9613932578019594</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.985893405884226</v>
+        <v>0.9854267472216761</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1066</v>
@@ -6971,19 +6971,19 @@
         <v>704093</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>688087</v>
+        <v>688521</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>719494</v>
+        <v>720668</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8481747873726337</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.828893852476666</v>
+        <v>0.8294159857103267</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8667277044198869</v>
+        <v>0.868142035175397</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1595</v>
@@ -6992,19 +6992,19 @@
         <v>1257558</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1239270</v>
+        <v>1238153</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1273311</v>
+        <v>1274032</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9001181257221817</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8870280680128462</v>
+        <v>0.8862289958910837</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9113936913675056</v>
+        <v>0.9119097481109355</v>
       </c>
     </row>
     <row r="18">
@@ -7099,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3199</v>
+        <v>3083</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002403958058287045</v>
@@ -7108,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0134836581141067</v>
+        <v>0.01299770383802565</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>132</v>
@@ -7117,19 +7117,19 @@
         <v>76254</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>63078</v>
+        <v>64222</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>91238</v>
+        <v>92662</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.09039213508343125</v>
+        <v>0.09039213508343123</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07477263906714819</v>
+        <v>0.07612931486914047</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1081542191259624</v>
+        <v>0.1098413665292262</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>133</v>
@@ -7138,19 +7138,19 @@
         <v>76825</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>64246</v>
+        <v>63448</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>93639</v>
+        <v>93125</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07107979579042052</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05944165836933227</v>
+        <v>0.05870375075056786</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08663666664752259</v>
+        <v>0.08616097874959185</v>
       </c>
     </row>
     <row r="20">
@@ -7167,7 +7167,7 @@
         <v>236658</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>234029</v>
+        <v>234145</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>237228</v>
@@ -7176,7 +7176,7 @@
         <v>0.9975960419417129</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9865163418858934</v>
+        <v>0.9870022961619741</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -7188,19 +7188,19 @@
         <v>767342</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>752358</v>
+        <v>750934</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>780518</v>
+        <v>779374</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9096078649165686</v>
+        <v>0.9096078649165689</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8918457808740375</v>
+        <v>0.8901586334707738</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9252273609328512</v>
+        <v>0.9238706851308597</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1137</v>
@@ -7209,19 +7209,19 @@
         <v>1003999</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>987185</v>
+        <v>987699</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1016578</v>
+        <v>1017376</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9289202042095794</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9133633333524775</v>
+        <v>0.9138390212504077</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9405583416306678</v>
+        <v>0.9412962492494322</v>
       </c>
     </row>
     <row r="21">
@@ -7313,19 +7313,19 @@
         <v>134591</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>114693</v>
+        <v>114437</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>157507</v>
+        <v>159449</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.03911826531202872</v>
+        <v>0.03911826531202871</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03333489851868359</v>
+        <v>0.03326052700305419</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04577872360839919</v>
+        <v>0.04634319845784593</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>665</v>
@@ -7334,19 +7334,19 @@
         <v>397252</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>366341</v>
+        <v>367353</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>427678</v>
+        <v>430009</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1093566768774814</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1008472718055619</v>
+        <v>0.101125870298127</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1177322111770045</v>
+        <v>0.1183741067089139</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>823</v>
@@ -7355,19 +7355,19 @@
         <v>531844</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>495163</v>
+        <v>496389</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>569402</v>
+        <v>570763</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07519082031107233</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07000502702426903</v>
+        <v>0.07017828668482436</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08050071161085445</v>
+        <v>0.08069315655553422</v>
       </c>
     </row>
     <row r="23">
@@ -7384,19 +7384,19 @@
         <v>3306029</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3283113</v>
+        <v>3281171</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3325927</v>
+        <v>3326183</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9608817346879713</v>
+        <v>0.9608817346879711</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9542212763916005</v>
+        <v>0.9536568015421539</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9666651014813163</v>
+        <v>0.9667394729969456</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4575</v>
@@ -7405,19 +7405,19 @@
         <v>3235379</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3204953</v>
+        <v>3202622</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3266290</v>
+        <v>3265278</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8906433231225186</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8822677888229955</v>
+        <v>0.8816258932910861</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.899152728194438</v>
+        <v>0.898874129701873</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7715</v>
@@ -7426,19 +7426,19 @@
         <v>6541407</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6503849</v>
+        <v>6502488</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6578088</v>
+        <v>6576862</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9248091796889276</v>
+        <v>0.9248091796889277</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9194992883891455</v>
+        <v>0.9193068434444658</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9299949729757309</v>
+        <v>0.9298217133151757</v>
       </c>
     </row>
     <row r="24">
